--- a/data/trans_camb/P12A1_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,79</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,04</t>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 18,4</t>
+          <t>-3,61; 2,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 14,18</t>
+          <t>-4,18; 1,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 8,26</t>
+          <t>-4,5; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 14,7</t>
+          <t>3,31; 9,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 10,14</t>
+          <t>0,28; 6,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,91; -2,31</t>
+          <t>-3,1; 3,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 12,78</t>
+          <t>-3,9; 2,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 8,01</t>
+          <t>-3,34; 3,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -0,85</t>
+          <t>-1,97; 5,1</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 4,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 2,23</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 1,37</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 1,89</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 6,32</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 4,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,72%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,59%</t>
+          <t>-13,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>116,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,04%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,08%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-21,36%</t>
+          <t>20,71%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,13%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-6,31%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>56,1%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>27,08%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 57,46</t>
+          <t>-43,1; 58,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,2; 40,92</t>
+          <t>-49,82; 43,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 25,8</t>
+          <t>-54,79; 38,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 28,6</t>
+          <t>41,28; 256,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 19,94</t>
+          <t>0,94; 96,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,2; -4,12</t>
+          <t>-31,23; 46,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 29,85</t>
+          <t>-37,53; 29,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 17,21</t>
+          <t>-35,0; 52,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,78; -2,3</t>
+          <t>-19,91; 78,43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-19,0; 60,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,47; 36,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,11; 22,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-34,17; 30,14</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 110,3</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 62,58</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,91</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 13,05</t>
+          <t>-2,99; 2,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 13,86</t>
+          <t>-2,44; 3,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 18,81</t>
+          <t>-1,41; 5,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 20,52</t>
+          <t>-3,67; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 15,56</t>
+          <t>-5,54; 3,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 33,39</t>
+          <t>-5,74; 2,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 12,64</t>
+          <t>-4,14; 4,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 9,78</t>
+          <t>-2,91; 6,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 20,75</t>
+          <t>-8,11; 1,98</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,97; 1,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 1,13</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 2,53</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 4,8</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 1,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 1,38</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>-10,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>-15,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>-31,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-39,35%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-13,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-19,27%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-25,73%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 40,98</t>
+          <t>-44,16; 54,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 42,62</t>
+          <t>-37,63; 85,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 57,24</t>
+          <t>-22,82; 123,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 53,53</t>
+          <t>-43,76; 89,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 38,81</t>
+          <t>-54,19; 74,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 81,41</t>
+          <t>-48,7; 36,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 32,38</t>
+          <t>-37,9; 58,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 24,81</t>
+          <t>-25,86; 93,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 50,33</t>
+          <t>-61,24; 24,01</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-69,01; 20,02</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-39,36; 19,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-27,94; 42,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,77; 77,47</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-45,99; 18,83</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-54,59; 17,55</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-24,33</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,37</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-9,99</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-18,68</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-9,89</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-55,94; 9,56</t>
+          <t>-4,75; 10,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-50,64; 18,64</t>
+          <t>-0,27; 16,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-6,44; 9,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-35,59; 12,35</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 24,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-8,5; 6,64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 8,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,51; 6,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-40,55; 2,08</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-31,93; 10,58</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 6,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 10,83</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 5,77</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,02%</t>
+          <t>38,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>102,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-12,4%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-4,48%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-22,92%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-23,77%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-12,58%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>50,07%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-3,87%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,38; 12,36</t>
+          <t>-42,04; 220,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,02; 31,07</t>
+          <t>-5,18; 354,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-57,18; 225,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-39,61; 16,68</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 38,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-52,6; 91,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-40,97; 113,91</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-69,3; 84,41</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-47,65; 2,43</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-37,56; 14,05</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-34,94; 92,45</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 167,93</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-49,72; 84,18</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 9,21</t>
+          <t>-2,14; 1,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 9,42</t>
+          <t>-1,43; 2,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 3,59</t>
+          <t>-1,71; 2,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 10,38</t>
+          <t>1,31; 6,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 8,75</t>
+          <t>-0,33; 5,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 1,27</t>
+          <t>-3,17; 1,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 6,57</t>
+          <t>-2,7; 1,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 5,83</t>
+          <t>-2,41; 3,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -0,81</t>
+          <t>-2,74; 2,77</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 2,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 1,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 1,76</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 2,14</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 3,95</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 3,09</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,2%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>60,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,83%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-17,2%</t>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>24,07%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 24,08</t>
+          <t>-29,94; 38,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 23,8</t>
+          <t>-20,16; 52,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 9,28</t>
+          <t>-23,79; 53,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 19,78</t>
+          <t>15,04; 116,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 16,28</t>
+          <t>-4,23; 75,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 2,37</t>
+          <t>-29,31; 22,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 13,62</t>
+          <t>-25,48; 25,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 12,63</t>
+          <t>-23,2; 39,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,05; -1,23</t>
+          <t>-24,63; 34,44</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-27,35; 37,0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-21,46; 21,55</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 26,13</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-15,95; 30,28</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 53,95</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; 40,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
